--- a/results/fibonacci_benchmark.xlsx
+++ b/results/fibonacci_benchmark.xlsx
@@ -1960,7 +1960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D28"/>
     </sheetView>
   </sheetViews>
